--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,348 +441,252 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Código de Respuesta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Título</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Etiqueta H1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Meta Descripción</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Código de Respuesta</t>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profundidad</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://seokom.es/static/images/colores-peque.jpg</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No es una página HTML</t>
-        </is>
+          <t>https://seokom.es</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
+          <t>Inicio | Herramientas útiles para desarrolldores</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>200</v>
+          <t>Herramientas útiles en Línea</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://seokom.es/qr</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Generador de CÃ³digos QR</t>
-        </is>
+          <t>https://seokom.es/</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>200</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Generador de CÃ³digos QR</t>
+          <t>Inicio | Herramientas útiles para desarrolldores</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Genera cÃ³digos QR de forma rÃ¡pida y sencilla para cualquier URL.</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>200</v>
+          <t>Herramientas útiles en Línea</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://seokom.es/static/images/password-peque.jpg</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No es una página HTML</t>
-        </is>
+          <t>https://seokom.es/qr</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>200</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
+          <t>Generador de CÃ³digos QR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>200</v>
+          <t>Generador de CÃ³digos QR</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Genera cÃ³digos QR de forma rÃ¡pida y sencilla para cualquier URL.</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://seokom.es/static/images/acortador-peque.jpg</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No es una página HTML</t>
-        </is>
+          <t>https://seokom.es/password</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>200</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
+          <t>Generador de Contraseñas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>200</v>
+          <t>Generador de Contraseñas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Genera contraseñas seguras y aleatorias de forma rápida y sencilla. Personaliza la longitud de tu contraseña y mantén tu seguridad online.</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://seokom.es/colorpicker</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Selector de Color Incrustado</t>
-        </is>
+          <t>https://seokom.es/acortador</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Selecciona un color con el selector flotante</t>
+          <t>Acortador de URL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Selecciona y personaliza colores fácilmente con nuestra herramienta Color Picker. Explora paletas, copia códigos HEX, RGB y más para tus proyectos de diseño y desarrollo web.</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>200</v>
+          <t>Acortador de URL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Acorta tus URLs de forma rápida, segura y gratuita. Simplifica tus enlaces largos con nuestro acortador de URLs fácil de usar y mejora el alcance de tus contenidos en redes sociales, marketing y más.</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://seokom.es/password</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Generador de Contraseñas</t>
-        </is>
+          <t>https://seokom.es/vulnerabilidades</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Generador de Contraseñas</t>
+          <t>Inicio | Herramientas útiles para desarrolldores</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Genera contraseñas seguras y aleatorias de forma rápida y sencilla. Personaliza la longitud de tu contraseña y mantén tu seguridad online.</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>200</v>
+          <t>Sin etiqueta H1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://seokom.es/static/css/home.css</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No es una página HTML</t>
-        </is>
+          <t>https://seokom.es/colorpicker</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>200</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
+          <t>Selector de Color Incrustado</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>200</v>
+          <t>Selecciona un color con el selector flotante</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Selecciona y personaliza colores fácilmente con nuestra herramienta Color Picker. Explora paletas, copia códigos HEX, RGB y más para tus proyectos de diseño y desarrollo web.</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://seokom.es/static/images/qr-peque.jpg</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>No es una página HTML</t>
-        </is>
+          <t>https://seokom.es/escaner</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
+          <t>Escaner de puertos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>No es una página HTML</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://seokom.es/vulnerabilidades</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Inicio | Herramientas útiles para desarrolldores</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sin etiqueta H1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+          <t>Escaner de puertos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://seokom.es/escaner</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Escaner de puertos</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Escaner de puertos</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://seokom.es/acortador</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Acortador de URL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Acortador de URL</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Acorta tus URLs de forma rápida, segura y gratuita. Simplifica tus enlaces largos con nuestro acortador de URLs fácil de usar y mejora el alcance de tus contenidos en redes sociales, marketing y más.</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://seokom.es/</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Inicio | Herramientas útiles para desarrolldores</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Herramientas útiles en Línea</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://seokom.es/static/css/estilos.css</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>No es una página HTML</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>No es una página HTML</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>No es una página HTML</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>200</v>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://seokom.es/</t>
+          <t>https://seokom.es/colorpicker</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -504,17 +504,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Inicio | Herramientas útiles para desarrolldores</t>
+          <t>Selector de Color Incrustado</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Herramientas útiles en Línea</t>
+          <t>Selecciona un color con el selector flotante</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
+          <t>Selecciona y personaliza colores fácilmente con nuestra herramienta Color Picker. Explora paletas, copia códigos HEX, RGB y más para tus proyectos de diseño y desarrollo web.</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -524,7 +524,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://seokom.es/qr</t>
+          <t>https://seokom.es/vulnerabilidades</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -532,17 +532,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Generador de CÃ³digos QR</t>
+          <t>Inicio | Herramientas útiles para desarrolldores</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Generador de CÃ³digos QR</t>
+          <t>Sin etiqueta H1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Genera cÃ³digos QR de forma rÃ¡pida y sencilla para cualquier URL.</t>
+          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -552,7 +552,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://seokom.es/password</t>
+          <t>https://seokom.es/escaner</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -560,17 +560,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Generador de Contraseñas</t>
+          <t>Escaner de puertos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Generador de Contraseñas</t>
+          <t>Escaner de puertos</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Genera contraseñas seguras y aleatorias de forma rápida y sencilla. Personaliza la longitud de tu contraseña y mantén tu seguridad online.</t>
+          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -580,7 +580,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://seokom.es/acortador</t>
+          <t>https://seokom.es/</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -588,17 +588,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Acortador de URL</t>
+          <t>Inicio | Herramientas útiles para desarrolldores</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Acortador de URL</t>
+          <t>Herramientas útiles en Línea</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Acorta tus URLs de forma rápida, segura y gratuita. Simplifica tus enlaces largos con nuestro acortador de URLs fácil de usar y mejora el alcance de tus contenidos en redes sociales, marketing y más.</t>
+          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -608,7 +608,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://seokom.es/vulnerabilidades</t>
+          <t>https://seokom.es/acortador</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -616,17 +616,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Inicio | Herramientas útiles para desarrolldores</t>
+          <t>Acortador de URL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sin etiqueta H1</t>
+          <t>Acortador de URL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
+          <t>Acorta tus URLs de forma rápida, segura y gratuita. Simplifica tus enlaces largos con nuestro acortador de URLs fácil de usar y mejora el alcance de tus contenidos en redes sociales, marketing y más.</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -636,7 +636,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://seokom.es/colorpicker</t>
+          <t>https://seokom.es/qr</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -644,17 +644,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Selector de Color Incrustado</t>
+          <t>Generador de CÃ³digos QR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Selecciona un color con el selector flotante</t>
+          <t>Generador de CÃ³digos QR</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Selecciona y personaliza colores fácilmente con nuestra herramienta Color Picker. Explora paletas, copia códigos HEX, RGB y más para tus proyectos de diseño y desarrollo web.</t>
+          <t>Genera cÃ³digos QR de forma rÃ¡pida y sencilla para cualquier URL.</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -664,7 +664,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://seokom.es/escaner</t>
+          <t>https://seokom.es/password</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -672,17 +672,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Escaner de puertos</t>
+          <t>Generador de Contraseñas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Escaner de puertos</t>
+          <t>Generador de Contraseñas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Descubre nuestras herramientas en línea: acortador de URLs, selector de colores y generador de contraseñas. Soluciones rápidas, seguras y fáciles para tus necesidades digitales.</t>
+          <t>Genera contraseñas seguras y aleatorias de forma rápida y sencilla. Personaliza la longitud de tu contraseña y mantén tu seguridad online.</t>
         </is>
       </c>
       <c r="F9" t="n">
